--- a/Bill of materials.xlsx
+++ b/Bill of materials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ragav\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Arduino files\WOL_LED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD09CC0-0E8C-4BD6-BE2F-A993EE3D37E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C2E47-C2F5-4722-B9CD-5CCE114A59F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7470" yWindow="4110" windowWidth="28800" windowHeight="15420" xr2:uid="{9AA124D1-7DE7-41DC-B90D-68347A8C9BAE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Item</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>https://www.amazon.com/Voltaic-Systems-Formerly-Battery-Samsung/dp/B07ZS3WYZY</t>
+  </si>
+  <si>
+    <t>Project box</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07D23BF7Y</t>
   </si>
 </sst>
 </file>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C37B48-7CF2-4FBA-A3C1-0E7AE96C611F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +594,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>12.59</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{37755138-5FC8-44F5-90A8-27769FCFA64C}"/>
